--- a/data/D_FACULTADES  -   DECANATOS Y MESAS DE PARTE.xlsx
+++ b/data/D_FACULTADES  -   DECANATOS Y MESAS DE PARTE.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gustavo\OneDrive\Escritorio\directorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC7AEE24-8488-430C-97B2-1095FF2CCFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5CF4A2-4E92-4E63-9B29-0EF26AD537D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{31D63E2E-259A-407E-B75F-16B27FBF61F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FA23C9E2-2F32-4C5A-A856-AA572487C2FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="FACULTADES  -   DECANATOS Y MES" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>APELLIDOS Y NOMBRES</t>
   </si>
@@ -84,7 +84,7 @@
     <t>1113-1114</t>
   </si>
   <si>
-    <t>TARAZONA PADILLA JULIO WILMER</t>
+    <t>DURAN HERRERA VICTOR HUGO</t>
   </si>
   <si>
     <t>Decano -  FACULTAD DE CIENCIAS ADMINISTRATIVAS</t>
@@ -93,24 +93,18 @@
     <t>FCA.</t>
   </si>
   <si>
-    <t>017-2020-CEU/UNAC</t>
+    <t>029-2024-CEU/UNAC</t>
   </si>
   <si>
     <t>429-7296</t>
   </si>
   <si>
-    <t>jwtarazonap@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>fca.decanato@unac.edu.pe</t>
+    <t>vhduranh@unac.edu.pe</t>
   </si>
   <si>
     <t>2000-2001</t>
   </si>
   <si>
-    <t>fca.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t>SALAZAR SANDOVAL FREDY VICENTE</t>
   </si>
   <si>
@@ -129,16 +123,10 @@
     <t>fvsalazars@unac.edu.pe</t>
   </si>
   <si>
-    <t>fcc.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2020-2021</t>
   </si>
   <si>
-    <t>fcc.mesa@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>CARO ANCHAY AUGUSTO</t>
+    <t>HOCES VARILLAS VICTOR AURELIO</t>
   </si>
   <si>
     <t>Decano -  FACULTAD DE CIENCIAS ECONÓMICAS</t>
@@ -147,24 +135,18 @@
     <t>FCE.</t>
   </si>
   <si>
-    <t>018-2020-CEU/UNAC</t>
+    <t>031-2024-CEU/UNAC</t>
   </si>
   <si>
     <t>420-0219</t>
   </si>
   <si>
-    <t>acaroa@unac.edu.pe</t>
-  </si>
-  <si>
-    <t>fce.decanato@unac.edu.pe</t>
+    <t>vahocesv@unac.edu.pe</t>
   </si>
   <si>
     <t>2060-2061</t>
   </si>
   <si>
-    <t>fce.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t>SICCHA MACASSI ANA LUCY</t>
   </si>
   <si>
@@ -183,15 +165,9 @@
     <t>alsiccham@unac.edu.pe</t>
   </si>
   <si>
-    <t>fcs.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2040-2041</t>
   </si>
   <si>
-    <t>fcs.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t>MENDEZ VELASQUEZ JUAN ABRAHAM</t>
   </si>
   <si>
@@ -210,15 +186,9 @@
     <t>jamendezv@unac.edu.pe</t>
   </si>
   <si>
-    <t>fcnm.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2081-2082</t>
   </si>
   <si>
-    <t>fcnm.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t>BARRETO PIO CARMEN ELIZABETH</t>
   </si>
   <si>
@@ -237,15 +207,9 @@
     <t>cebarretop@unac.edu.pe</t>
   </si>
   <si>
-    <t>fiarn.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2100-2101</t>
   </si>
   <si>
-    <t>fiarn.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t>OYANGUREN RAMIREZ FERNANDO JOSÉ</t>
   </si>
   <si>
@@ -264,15 +228,9 @@
     <t>fjoyangurenr@unac.edu.pe</t>
   </si>
   <si>
-    <t>fiee.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2120-2121</t>
   </si>
   <si>
-    <t>fiee.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t>PAÚCAR LLANOS PAUL GREGORIO</t>
   </si>
   <si>
@@ -291,15 +249,9 @@
     <t>pgpaucarll@unac.edu.pe</t>
   </si>
   <si>
-    <t>fiis.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2140-2141</t>
   </si>
   <si>
-    <t>fiis.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t>LARA MARQUEZ JUAN MANUEL</t>
   </si>
   <si>
@@ -318,15 +270,9 @@
     <t>jmlaram@unac.edu.pe</t>
   </si>
   <si>
-    <t>fime.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2160-2161</t>
   </si>
   <si>
-    <t>fime.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t xml:space="preserve">GARCÍA TALLEDO ENRIQUE GUSTAVO </t>
   </si>
   <si>
@@ -345,15 +291,9 @@
     <t>eggarciat@unac.edu.pe</t>
   </si>
   <si>
-    <t>fipa.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2180-2181</t>
   </si>
   <si>
-    <t>fipa.mesa@unac.edu.pe</t>
-  </si>
-  <si>
     <t>CALDERÓN CRUZ JULIO CÉSAR</t>
   </si>
   <si>
@@ -372,13 +312,40 @@
     <t>jccalderonc@unac.edu.pe</t>
   </si>
   <si>
-    <t>fiq.decanato@unac.edu.pe</t>
-  </si>
-  <si>
     <t>2200-2201</t>
   </si>
   <si>
-    <t>fiq.mesa@unac.edu.pe</t>
+    <t>fca.decanato@unac.edu.pe   fca.decanato@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fcc.decanato@unac.edu.pe fcc.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fce.decanato@unac.edu.pe  fce.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fcs.decanato@unac.edu.pe  fcs.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fcnm.decanato@unac.edu.pe    fcnm.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fiarn.decanato@unac.edu.pe     fiarn.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fiee.decanato@unac.edu.pe   fiee.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fiis.decanato@unac.edu.pe  fiis.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fime.decanato@unac.edu.pe   fime.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fipa.decanato@unac.edu.pe   fipa.mesa@unac.edu.pe</t>
+  </si>
+  <si>
+    <t>fiq.decanato@unac.edu.pe   fiq.mesa@unac.edu.pe</t>
   </si>
 </sst>
 </file>
@@ -390,7 +357,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -430,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -439,11 +406,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -456,17 +427,19 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -487,62 +460,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -555,6 +476,32 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -562,20 +509,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -583,96 +521,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -692,17 +597,45 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Montserrat SemiBold"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEBDE14"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="8"/>
         <color auto="1"/>
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -733,12 +666,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -812,12 +739,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -850,12 +771,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -888,12 +803,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -926,12 +835,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -964,12 +867,6 @@
         <name val="Montserrat Medium"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1005,40 +902,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Montserrat SemiBold"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFEBDE14"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1055,19 +918,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{32B00525-96CD-4FC4-8397-6616A80A2ADE}" name="Tabla9" displayName="Tabla9" ref="A1:H24" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
-  <autoFilter ref="A1:H24" xr:uid="{3D17F594-89B5-43CA-993F-0F169AEE7646}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0F1F40FF-86E6-4BCF-B549-5A68B86FFEE5}" name="Tabla2" displayName="Tabla2" ref="A1:H13" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="A1:H13" xr:uid="{0F1F40FF-86E6-4BCF-B549-5A68B86FFEE5}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{782EF12A-3483-4A87-A09C-3EAD056C5FA3}" name="APELLIDOS Y NOMBRES" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B62E6165-598D-475E-AE73-5F40CD2F6E5D}" name="CARGO" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{F0FBDF38-4BB2-4020-A13B-18C2737203BC}" name="SIGLA" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{7D7A4E10-3B0A-4969-889E-3563CEA4A1B7}" name="RESOL." dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E90751F2-BC95-485F-B71E-8036F14EA6C1}" name="TELF. FIJO" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{1A08EA00-435D-44FD-AB1D-E90E1F350DC1}" name="CORREO INSTITUCIONAL" dataDxfId="2" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="7" xr3:uid="{70683845-A155-4E8C-91FC-BE637F69D151}" name="CORREOS GENERAL" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{D7E50770-56AC-4184-9328-57E5F01E206C}" name="ANEXO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{991F8438-4F52-4C8B-BBC9-FEC50757077B}" name="APELLIDOS Y NOMBRES" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{52C90C7F-1E00-4D31-B152-F5FA53311FE9}" name="CARGO" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{749AD584-7CAC-4081-8D20-5DDC8158221F}" name="SIGLA" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{14B757C0-E81F-4017-9879-B4DE6DC53664}" name="RESOL." dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{833F02CF-026D-4F6F-9D5F-B1FC32429B61}" name="TELF. FIJO" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{C5CF7933-0C9E-4FBC-9C9C-ECE2071F8CB9}" name="CORREO INSTITUCIONAL" dataDxfId="3" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="7" xr3:uid="{6F838158-EC67-4A16-B3AF-DC3F5F366946}" name="CORREOS GENERAL" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{24CB10F2-3694-4E3F-83B7-CF6D3BD0A1F2}" name="ANEXO" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1367,536 +1230,403 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E805336-58A1-4ACB-8DC8-A14C8F2E5A27}">
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A936C38D-6778-47A3-8FC3-F3304923E059}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12" style="4"/>
+    <col min="1" max="1" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="12" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="38.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33.75">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="56.25">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="56.25">
+    <row r="3" spans="1:8" ht="33.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="17" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="47.25" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="23"/>
+    <row r="5" spans="1:8" ht="33.75">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="45">
-      <c r="A5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>32</v>
+    <row r="6" spans="1:8" ht="33.75">
+      <c r="A6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="23"/>
+    <row r="7" spans="1:8" ht="45">
+      <c r="A7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" ht="56.25">
-      <c r="A7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="23"/>
+    <row r="8" spans="1:8" ht="56.25">
+      <c r="A8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="45">
       <c r="A9" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="23"/>
+    <row r="10" spans="1:8" ht="45">
+      <c r="A10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" ht="78.75">
+    <row r="11" spans="1:8" ht="45">
       <c r="A11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>59</v>
+        <v>72</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="23"/>
+    <row r="12" spans="1:8" ht="56.25">
+      <c r="A12" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" ht="78.75">
+    <row r="13" spans="1:8" ht="33.75">
       <c r="A13" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" ht="78.75">
-      <c r="A15" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="23"/>
-    </row>
-    <row r="17" spans="1:8" ht="78.75">
-      <c r="A17" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="17" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="23"/>
-    </row>
-    <row r="19" spans="1:8" ht="67.5">
-      <c r="A19" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="D13" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="E13" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="F13" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="G13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="23"/>
-    </row>
-    <row r="21" spans="1:8" ht="78.75">
-      <c r="A21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="23"/>
-    </row>
-    <row r="23" spans="1:8" ht="56.25">
-      <c r="A23" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="30"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" xr:uid="{EAF40E01-A19A-422D-AD4F-27F02FF703E7}"/>
-    <hyperlink ref="G17" r:id="rId2" xr:uid="{D0DA921E-5493-4A66-AB0C-54E66547C9F6}"/>
-    <hyperlink ref="G15" r:id="rId3" xr:uid="{1D763DE7-1557-443C-8DBF-866A4556715C}"/>
-    <hyperlink ref="G13" r:id="rId4" xr:uid="{49EE9D00-8707-48EC-BDC6-DFF8A463E799}"/>
-    <hyperlink ref="G11" r:id="rId5" xr:uid="{912C001D-4D6E-4FE9-9324-5B3AD05BDFD0}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{48A4A865-1157-4D02-80A6-AD1E90240C32}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{18061B01-F38E-4787-9D9C-54FF5A42213C}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{D41BD89E-25B2-465D-99F2-FD4E611EE68F}"/>
-    <hyperlink ref="F2" r:id="rId9" xr:uid="{0CA22DBB-A4CD-4991-89AB-F8750F8F27A1}"/>
-    <hyperlink ref="F3" r:id="rId10" xr:uid="{BF287616-A970-4E13-9DBA-2E7D36F1DFC2}"/>
-    <hyperlink ref="F5" r:id="rId11" xr:uid="{C1578EA8-30AA-4FD4-84B4-AEC5F709B251}"/>
-    <hyperlink ref="F7" r:id="rId12" xr:uid="{B957A919-CDC1-491F-B2B5-03A9A79160E5}"/>
-    <hyperlink ref="F9" r:id="rId13" xr:uid="{0C03C28E-6D45-4B6E-8BD1-1DBB19122AE9}"/>
-    <hyperlink ref="F11" r:id="rId14" xr:uid="{8A09B962-2FD2-4635-A69C-20EACD01EFDE}"/>
-    <hyperlink ref="F13" r:id="rId15" xr:uid="{C7BFA410-3A0A-4917-B48C-4383C674716A}"/>
-    <hyperlink ref="F15" r:id="rId16" xr:uid="{DEA73F3C-AF8E-4A51-86D2-D66E06F0CB3D}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{B08D4F8B-1A87-4645-B8AC-56851C23B47D}"/>
-    <hyperlink ref="F19" r:id="rId18" xr:uid="{4A841788-0C7D-4F6A-B8BF-6B19EB58C713}"/>
-    <hyperlink ref="F21" r:id="rId19" xr:uid="{9FEE8E91-C884-4E5F-AAB8-0274B3EF8EA3}"/>
-    <hyperlink ref="F23" r:id="rId20" xr:uid="{052F5622-A739-422C-AE56-871C893E1DD6}"/>
-    <hyperlink ref="G19" r:id="rId21" xr:uid="{B30419E1-AD32-4B9E-A7D1-DBF9EDCEC2F0}"/>
-    <hyperlink ref="G20" r:id="rId22" xr:uid="{667C5B79-8E74-43B8-9A06-AC8C7399E24C}"/>
-    <hyperlink ref="G21" r:id="rId23" xr:uid="{E9B69A59-F269-477A-B950-D13ABFB67A9A}"/>
-    <hyperlink ref="G9" r:id="rId24" xr:uid="{77612CAC-8F83-442C-B2CE-8333A1A76895}"/>
-    <hyperlink ref="G2" r:id="rId25" display="mailto:posgrado@unac.edu.pe" xr:uid="{EC4F1119-1EDC-4EC8-951D-06680FB8C5CD}"/>
-    <hyperlink ref="D3:D4" r:id="rId26" display="017-2020-CEU/UNAC" xr:uid="{4C16BFD9-71F0-4271-90DF-CD44CF97F8A6}"/>
-    <hyperlink ref="D7:D8" r:id="rId27" display="018-2020-CEU/UNAC" xr:uid="{8EA6D24E-6725-4361-B566-9B997F452834}"/>
-    <hyperlink ref="D9:D10" r:id="rId28" display="010-2022-CEU/UNAC" xr:uid="{A5F79A0C-2C2F-4312-83DC-B1099EB79CE5}"/>
-    <hyperlink ref="D13:D14" r:id="rId29" display="019-2020-CEU/UNAC" xr:uid="{AA24955C-6B43-40BC-A1BD-A855C8A16B17}"/>
-    <hyperlink ref="D19:D20" r:id="rId30" display="035-2020-CEU/UNAC" xr:uid="{8844FC51-F36F-495C-A999-891BEF508A02}"/>
-    <hyperlink ref="D21:D22" r:id="rId31" display="028-2023-CEU/UNAC." xr:uid="{84816565-5EDC-4798-8143-D8BF45CBC0EE}"/>
-    <hyperlink ref="D15:D16" r:id="rId32" display="027-2023-CEU/UNAC" xr:uid="{CA057A6A-C3BC-4C47-BA2A-B4357A416BBA}"/>
-    <hyperlink ref="D2" r:id="rId33" xr:uid="{FC306FC5-C8F0-480D-A635-2D45B2BFD39A}"/>
-    <hyperlink ref="D17:D18" r:id="rId34" display="033-2023-CEU/UNAC" xr:uid="{130825ED-A308-4C04-A45A-E76DD9AE38EF}"/>
+    <hyperlink ref="G13" r:id="rId1" display="fiq.decanato@unac.edu.pe" xr:uid="{98E7D33B-248F-492D-A0C2-1EBB742A3A05}"/>
+    <hyperlink ref="G10" r:id="rId2" display="fiis.decanato@unac.edu.pe" xr:uid="{1BEC10FF-702D-4F00-B0A4-ACCD62D5797D}"/>
+    <hyperlink ref="G9" r:id="rId3" display="fiee.decanato@unac.edu.pe" xr:uid="{9976B8D3-A643-4242-8650-1A8B8F461906}"/>
+    <hyperlink ref="G8" r:id="rId4" display="fiarn.decanato@unac.edu.pe" xr:uid="{4B3AEBE4-ED7D-4FF5-87A0-B36281542B56}"/>
+    <hyperlink ref="G7" r:id="rId5" display="fcnm.decanato@unac.edu.pe" xr:uid="{03F2C8E6-A223-4716-B67F-7F68A242397D}"/>
+    <hyperlink ref="G5" r:id="rId6" display="fce.decanato@unac.edu.pe" xr:uid="{6BD58F9B-214B-402F-81D1-4DEC4F77653B}"/>
+    <hyperlink ref="G4" r:id="rId7" display="fcc.decanato@unac.edu.pe" xr:uid="{A578CAA1-A966-44EC-A776-551E2E35D508}"/>
+    <hyperlink ref="G3" r:id="rId8" display="fca.decanato@unac.edu.pe" xr:uid="{4E677DA7-D198-40CF-822C-9ACA8EE738E8}"/>
+    <hyperlink ref="F2" r:id="rId9" xr:uid="{5864CDD7-519A-46C6-A420-28604B283D33}"/>
+    <hyperlink ref="F3" r:id="rId10" xr:uid="{F4003141-0713-4B28-B2D7-F14BD7CD4FB6}"/>
+    <hyperlink ref="F4" r:id="rId11" xr:uid="{E4CA2FB6-3EB5-44A4-814F-32028E89C96D}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{157144AD-14E8-4681-AD3B-BB7E09F5F3D8}"/>
+    <hyperlink ref="F6" r:id="rId13" xr:uid="{54B922CD-C3C1-4E81-99E9-BAB876E6FF7D}"/>
+    <hyperlink ref="F7" r:id="rId14" xr:uid="{5BC4CF5E-39D4-4FA8-814E-BEE3ABEEDBB7}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{85364E3E-50C5-4E76-A484-242FF4388FD8}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{EFCAEC87-2048-4CB1-BC12-D1A7A43D3605}"/>
+    <hyperlink ref="F10" r:id="rId17" xr:uid="{372BEDE8-1C98-41BF-A796-96429A3D22D0}"/>
+    <hyperlink ref="F11" r:id="rId18" xr:uid="{35F100B6-8E43-495E-9E0E-AC0D52A68C1A}"/>
+    <hyperlink ref="F12" r:id="rId19" xr:uid="{D4738D73-202E-4564-8A33-CB381697DC31}"/>
+    <hyperlink ref="F13" r:id="rId20" xr:uid="{13A5A02F-37D6-4E99-B450-66EA479DA204}"/>
+    <hyperlink ref="G11" r:id="rId21" display="fime.decanato@unac.edu.pe" xr:uid="{871F5BF8-5D50-4331-B590-4CBBB80C8EDB}"/>
+    <hyperlink ref="G12" r:id="rId22" display="fipa.decanato@unac.edu.pe" xr:uid="{990E380C-EC0F-4CE4-9ED4-BD9BAB1377D5}"/>
+    <hyperlink ref="G6" r:id="rId23" display="fcs.decanato@unac.edu.pe" xr:uid="{0263439B-009F-45D7-919A-591315A254A0}"/>
+    <hyperlink ref="G2" r:id="rId24" display="mailto:posgrado@unac.edu.pe" xr:uid="{F2DA57A7-E4DE-4E06-8EF5-9AB2275FD2BA}"/>
+    <hyperlink ref="D6" r:id="rId25" xr:uid="{2DA6F12A-3FB9-4DA6-A074-7C7500F506F0}"/>
+    <hyperlink ref="D8" r:id="rId26" xr:uid="{2B75288A-C664-4249-BF1A-EED6BFCC0715}"/>
+    <hyperlink ref="D11" r:id="rId27" xr:uid="{FC88B161-789F-45CE-9754-5B4F4FC644EC}"/>
+    <hyperlink ref="D12" r:id="rId28" xr:uid="{F382D04D-A1E2-4FB0-A41E-CEA201E2F0C2}"/>
+    <hyperlink ref="D9" r:id="rId29" xr:uid="{6BBD0F98-D5D0-4261-BBCA-7AA7F8401090}"/>
+    <hyperlink ref="D2" r:id="rId30" xr:uid="{805F1864-DEE6-4A38-8A50-39E937890A7A}"/>
+    <hyperlink ref="D10" r:id="rId31" xr:uid="{4839EE2B-3F99-4858-94FA-2C94C5851485}"/>
+    <hyperlink ref="D3" r:id="rId32" xr:uid="{2BB65052-235B-4254-9524-06FEF3CF23E5}"/>
+    <hyperlink ref="D5" r:id="rId33" xr:uid="{6342428D-1BD3-4601-8F20-F91E7587C632}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>